--- a/project/app/planilhas/Modelo_Fub.xlsx
+++ b/project/app/planilhas/Modelo_Fub.xlsx
@@ -4,20 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="19320" windowHeight="12810" tabRatio="902" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="19320" windowHeight="12810" tabRatio="902" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Capa Finatec" sheetId="1" r:id="rId1"/>
     <sheet name="Receita x Despesa" sheetId="2" r:id="rId2"/>
-    <sheet name="Passagens e Locomoção" sheetId="11" r:id="rId3"/>
-    <sheet name="Pessoa Fisica" sheetId="12" r:id="rId4"/>
-    <sheet name="Serv. Terceiro CLT" sheetId="13" r:id="rId5"/>
-    <sheet name="Pessoa Jurídica" sheetId="14" r:id="rId6"/>
-    <sheet name="ISS" sheetId="15" r:id="rId7"/>
-    <sheet name="Obrigações tributárias" sheetId="16" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="anderson">#REF!</definedName>
@@ -193,11 +187,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="[$-416]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    <numFmt numFmtId="168" formatCode="_(&quot;R$&quot;\ * #,##0.00_);_(&quot;R$&quot;\ * \(#,##0.00\);_(&quot;R$&quot;\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="[$-416]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    <numFmt numFmtId="166" formatCode="_(&quot;R$&quot;\ * #,##0.00_);_(&quot;R$&quot;\ * \(#,##0.00\);_(&quot;R$&quot;\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -455,15 +449,15 @@
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -654,19 +648,19 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -683,101 +677,101 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1509,7 +1503,7 @@
   </sheetPr>
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="H45" sqref="H45:I45"/>
     </sheetView>
   </sheetViews>
@@ -1532,188 +1526,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="94"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="77"/>
       <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="106"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="108"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="80"/>
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
     </row>
     <row r="8" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="94"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="77"/>
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="106"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="108"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="80"/>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:13" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="97"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="98"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="92"/>
       <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="95" t="s">
+      <c r="H12" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:13" s="12" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="104" t="s">
+      <c r="A13" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
       <c r="F13" s="9">
         <f>SUM(E14:E28)</f>
         <v>0</v>
       </c>
       <c r="G13" s="10"/>
-      <c r="H13" s="104" t="s">
+      <c r="H13" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="101"/>
+      <c r="I13" s="87"/>
       <c r="J13" s="9" t="e">
         <f>SUM(I15+I23)</f>
         <v>#REF!</v>
@@ -1742,10 +1736,10 @@
       <c r="B15" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="111" t="s">
+      <c r="C15" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="76"/>
+      <c r="D15" s="82"/>
       <c r="E15" s="19"/>
       <c r="F15" s="20"/>
       <c r="G15" s="21"/>
@@ -1762,8 +1756,8 @@
     <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="65"/>
       <c r="B16" s="55"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="76"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="82"/>
       <c r="E16" s="66"/>
       <c r="F16" s="1"/>
       <c r="G16" s="21"/>
@@ -1780,8 +1774,8 @@
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="65"/>
       <c r="B17" s="55"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="76"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="82"/>
       <c r="E17" s="66"/>
       <c r="F17" s="1"/>
       <c r="G17" s="21"/>
@@ -1798,8 +1792,8 @@
     <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="65"/>
       <c r="B18" s="55"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="76"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="82"/>
       <c r="E18" s="66"/>
       <c r="F18" s="1"/>
       <c r="G18" s="21"/>
@@ -1816,8 +1810,8 @@
     <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="65"/>
       <c r="B19" s="55"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="76"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="82"/>
       <c r="E19" s="66"/>
       <c r="F19" s="1"/>
       <c r="G19" s="21"/>
@@ -1834,8 +1828,8 @@
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="65"/>
       <c r="B20" s="55"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="76"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="82"/>
       <c r="E20" s="66"/>
       <c r="F20" s="1"/>
       <c r="G20" s="21"/>
@@ -1852,8 +1846,8 @@
     <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="65"/>
       <c r="B21" s="55"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="76"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="82"/>
       <c r="E21" s="66"/>
       <c r="F21" s="1"/>
       <c r="G21" s="21"/>
@@ -1870,8 +1864,8 @@
     <row r="22" spans="1:12" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="65"/>
       <c r="B22" s="55"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="85"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="98"/>
       <c r="E22" s="66"/>
       <c r="F22" s="25"/>
       <c r="G22" s="26"/>
@@ -1886,8 +1880,8 @@
     <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="65"/>
       <c r="B23" s="55"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="76"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="82"/>
       <c r="E23" s="66"/>
       <c r="F23" s="1"/>
       <c r="G23" s="21"/>
@@ -1905,8 +1899,8 @@
     <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="65"/>
       <c r="B24" s="32"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="76"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="82"/>
       <c r="E24" s="66"/>
       <c r="F24" s="1"/>
       <c r="G24" s="21"/>
@@ -1923,8 +1917,8 @@
     <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="65"/>
       <c r="B25" s="55"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="76"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="82"/>
       <c r="E25" s="66"/>
       <c r="F25" s="1"/>
       <c r="G25" s="21"/>
@@ -1942,8 +1936,8 @@
     <row r="26" spans="1:12" s="29" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="65"/>
       <c r="B26" s="55"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="85"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="98"/>
       <c r="E26" s="66"/>
       <c r="F26" s="2"/>
       <c r="G26" s="26"/>
@@ -1961,8 +1955,8 @@
     <row r="27" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="65"/>
       <c r="B27" s="55"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="85"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="98"/>
       <c r="E27" s="66"/>
       <c r="F27" s="2"/>
       <c r="G27" s="26"/>
@@ -1979,8 +1973,8 @@
     <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="65"/>
       <c r="B28" s="55"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="76"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="82"/>
       <c r="E28" s="66"/>
       <c r="F28" s="1"/>
       <c r="G28" s="21"/>
@@ -2004,13 +1998,13 @@
       <c r="L29" s="31"/>
     </row>
     <row r="30" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="100" t="s">
+      <c r="A30" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="101"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
       <c r="F30" s="9" t="e">
         <f>SUM(E32)</f>
         <v>#REF!</v>
@@ -2074,10 +2068,10 @@
       <c r="K33" s="17"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="89"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
+      <c r="A34" s="101"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
       <c r="E34" s="43"/>
       <c r="F34" s="20"/>
       <c r="G34" s="21"/>
@@ -2106,9 +2100,9 @@
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="44"/>
-      <c r="B36" s="86"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
+      <c r="B36" s="106"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
       <c r="E36" s="42"/>
       <c r="F36" s="1"/>
       <c r="G36" s="21"/>
@@ -2124,9 +2118,9 @@
     </row>
     <row r="37" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="44"/>
-      <c r="B37" s="88"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
       <c r="E37" s="42"/>
       <c r="F37" s="1"/>
       <c r="G37" s="21"/>
@@ -2158,22 +2152,22 @@
       <c r="K38" s="45"/>
     </row>
     <row r="39" spans="1:13" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="102" t="s">
+      <c r="A39" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="101"/>
-      <c r="C39" s="101"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="101"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="87"/>
       <c r="F39" s="9" t="e">
         <f>SUM(F13,F30)</f>
         <v>#REF!</v>
       </c>
       <c r="G39" s="34"/>
-      <c r="H39" s="102" t="s">
+      <c r="H39" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="I39" s="101"/>
+      <c r="I39" s="87"/>
       <c r="J39" s="9" t="e">
         <f>SUM(J13+J30)</f>
         <v>#REF!</v>
@@ -2201,48 +2195,48 @@
       <c r="M40" s="49"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="92"/>
-      <c r="B41" s="93"/>
-      <c r="C41" s="93"/>
-      <c r="D41" s="93"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="93"/>
-      <c r="H41" s="93"/>
-      <c r="I41" s="93"/>
-      <c r="J41" s="94"/>
+      <c r="A41" s="104"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="77"/>
       <c r="K41" s="17"/>
       <c r="L41" s="48"/>
       <c r="M41" s="49"/>
     </row>
     <row r="42" spans="1:13" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="90" t="s">
+      <c r="A42" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="91"/>
-      <c r="C42" s="91"/>
-      <c r="D42" s="91"/>
-      <c r="E42" s="91"/>
-      <c r="F42" s="91"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="91"/>
-      <c r="I42" s="91"/>
-      <c r="J42" s="91"/>
+      <c r="B42" s="103"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="103"/>
+      <c r="H42" s="103"/>
+      <c r="I42" s="103"/>
+      <c r="J42" s="103"/>
       <c r="K42" s="17"/>
       <c r="L42" s="50"/>
       <c r="M42" s="51"/>
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="82"/>
-      <c r="B43" s="76"/>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="76"/>
+      <c r="A43" s="111"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="110"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="82"/>
       <c r="K43" s="52"/>
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2259,54 +2253,54 @@
       <c r="K44" s="52"/>
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="80" t="s">
+      <c r="A45" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="76"/>
-      <c r="C45" s="76"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="82"/>
       <c r="D45" s="56"/>
       <c r="E45" s="56"/>
       <c r="F45" s="61"/>
       <c r="G45" s="61"/>
-      <c r="H45" s="80" t="s">
+      <c r="H45" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="I45" s="76"/>
+      <c r="I45" s="82"/>
       <c r="J45" s="60"/>
       <c r="K45" s="52"/>
     </row>
     <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="81" t="s">
+      <c r="A46" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="76"/>
-      <c r="C46" s="76"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="82"/>
       <c r="D46" s="57"/>
       <c r="E46" s="57"/>
       <c r="F46" s="61"/>
       <c r="G46" s="22"/>
-      <c r="H46" s="81" t="s">
+      <c r="H46" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="I46" s="76"/>
+      <c r="I46" s="82"/>
       <c r="J46" s="22"/>
       <c r="K46" s="52"/>
       <c r="L46" s="31"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="81" t="s">
+      <c r="A47" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="76"/>
-      <c r="C47" s="76"/>
+      <c r="B47" s="82"/>
+      <c r="C47" s="82"/>
       <c r="D47" s="57"/>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="81" t="s">
+      <c r="H47" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="I47" s="76"/>
+      <c r="I47" s="82"/>
       <c r="J47" s="1"/>
       <c r="K47" s="17"/>
     </row>
@@ -2324,343 +2318,384 @@
       <c r="K48" s="4"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="79"/>
-      <c r="B49" s="76"/>
-      <c r="C49" s="76"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="76"/>
-      <c r="F49" s="76"/>
-      <c r="G49" s="77"/>
+      <c r="A49" s="99"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="95"/>
       <c r="H49" s="53"/>
       <c r="I49" s="53"/>
       <c r="J49" s="53"/>
       <c r="K49" s="4"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="79"/>
-      <c r="B50" s="76"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="76"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="76"/>
-      <c r="G50" s="77"/>
+      <c r="A50" s="99"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="95"/>
       <c r="H50" s="53"/>
       <c r="I50" s="53"/>
       <c r="J50" s="53"/>
       <c r="K50" s="4"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="79"/>
-      <c r="B51" s="76"/>
-      <c r="C51" s="76"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="76"/>
-      <c r="F51" s="76"/>
-      <c r="G51" s="77"/>
+      <c r="A51" s="99"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="95"/>
       <c r="H51" s="53"/>
       <c r="I51" s="53"/>
       <c r="J51" s="53"/>
       <c r="K51" s="4"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="79"/>
-      <c r="B52" s="76"/>
-      <c r="C52" s="76"/>
-      <c r="D52" s="76"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="76"/>
-      <c r="G52" s="77"/>
+      <c r="A52" s="99"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="82"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="95"/>
       <c r="H52" s="53"/>
       <c r="I52" s="53"/>
       <c r="J52" s="53"/>
       <c r="K52" s="4"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="79"/>
-      <c r="B53" s="76"/>
-      <c r="C53" s="76"/>
-      <c r="D53" s="76"/>
-      <c r="E53" s="76"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="77"/>
+      <c r="A53" s="99"/>
+      <c r="B53" s="82"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="82"/>
+      <c r="G53" s="95"/>
       <c r="H53" s="53"/>
       <c r="I53" s="53"/>
       <c r="J53" s="53"/>
       <c r="K53" s="4"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="79"/>
-      <c r="B54" s="76"/>
-      <c r="C54" s="76"/>
-      <c r="D54" s="76"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="77"/>
+      <c r="A54" s="99"/>
+      <c r="B54" s="82"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="95"/>
       <c r="H54" s="53"/>
       <c r="I54" s="53"/>
       <c r="J54" s="53"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="79"/>
-      <c r="B55" s="76"/>
-      <c r="C55" s="76"/>
-      <c r="D55" s="76"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="77"/>
+      <c r="A55" s="99"/>
+      <c r="B55" s="82"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="82"/>
+      <c r="F55" s="82"/>
+      <c r="G55" s="95"/>
       <c r="H55" s="53"/>
       <c r="I55" s="53"/>
       <c r="J55" s="53"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="79"/>
-      <c r="B56" s="76"/>
-      <c r="C56" s="76"/>
-      <c r="D56" s="76"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="76"/>
-      <c r="G56" s="77"/>
+      <c r="A56" s="99"/>
+      <c r="B56" s="82"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="82"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="95"/>
       <c r="H56" s="53"/>
       <c r="I56" s="53"/>
       <c r="J56" s="53"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="79"/>
-      <c r="B57" s="76"/>
-      <c r="C57" s="76"/>
-      <c r="D57" s="76"/>
-      <c r="E57" s="76"/>
-      <c r="F57" s="76"/>
-      <c r="G57" s="77"/>
+      <c r="A57" s="99"/>
+      <c r="B57" s="82"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="82"/>
+      <c r="E57" s="82"/>
+      <c r="F57" s="82"/>
+      <c r="G57" s="95"/>
       <c r="H57" s="53"/>
       <c r="I57" s="53"/>
       <c r="J57" s="53"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="79"/>
-      <c r="B58" s="76"/>
-      <c r="C58" s="76"/>
-      <c r="D58" s="76"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="76"/>
-      <c r="G58" s="77"/>
+      <c r="A58" s="99"/>
+      <c r="B58" s="82"/>
+      <c r="C58" s="82"/>
+      <c r="D58" s="82"/>
+      <c r="E58" s="82"/>
+      <c r="F58" s="82"/>
+      <c r="G58" s="95"/>
       <c r="H58" s="53"/>
       <c r="I58" s="53"/>
       <c r="J58" s="53"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="79"/>
-      <c r="B59" s="76"/>
-      <c r="C59" s="76"/>
-      <c r="D59" s="76"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="77"/>
+      <c r="A59" s="99"/>
+      <c r="B59" s="82"/>
+      <c r="C59" s="82"/>
+      <c r="D59" s="82"/>
+      <c r="E59" s="82"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="95"/>
       <c r="H59" s="53"/>
       <c r="I59" s="53"/>
       <c r="J59" s="53"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="79"/>
-      <c r="B60" s="76"/>
-      <c r="C60" s="76"/>
-      <c r="D60" s="76"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="77"/>
+      <c r="A60" s="99"/>
+      <c r="B60" s="82"/>
+      <c r="C60" s="82"/>
+      <c r="D60" s="82"/>
+      <c r="E60" s="82"/>
+      <c r="F60" s="82"/>
+      <c r="G60" s="95"/>
       <c r="H60" s="53"/>
       <c r="I60" s="53"/>
       <c r="J60" s="53"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="79"/>
-      <c r="B61" s="76"/>
-      <c r="C61" s="76"/>
-      <c r="D61" s="76"/>
-      <c r="E61" s="76"/>
-      <c r="F61" s="76"/>
-      <c r="G61" s="77"/>
+      <c r="A61" s="99"/>
+      <c r="B61" s="82"/>
+      <c r="C61" s="82"/>
+      <c r="D61" s="82"/>
+      <c r="E61" s="82"/>
+      <c r="F61" s="82"/>
+      <c r="G61" s="95"/>
       <c r="H61" s="53"/>
       <c r="I61" s="53"/>
       <c r="J61" s="53"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="79"/>
-      <c r="B62" s="76"/>
-      <c r="C62" s="76"/>
-      <c r="D62" s="76"/>
-      <c r="E62" s="76"/>
-      <c r="F62" s="76"/>
-      <c r="G62" s="77"/>
+      <c r="A62" s="99"/>
+      <c r="B62" s="82"/>
+      <c r="C62" s="82"/>
+      <c r="D62" s="82"/>
+      <c r="E62" s="82"/>
+      <c r="F62" s="82"/>
+      <c r="G62" s="95"/>
       <c r="H62" s="53"/>
       <c r="I62" s="53"/>
       <c r="J62" s="53"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="79"/>
-      <c r="B63" s="76"/>
-      <c r="C63" s="76"/>
-      <c r="D63" s="76"/>
-      <c r="E63" s="76"/>
-      <c r="F63" s="76"/>
-      <c r="G63" s="77"/>
+      <c r="A63" s="99"/>
+      <c r="B63" s="82"/>
+      <c r="C63" s="82"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="82"/>
+      <c r="F63" s="82"/>
+      <c r="G63" s="95"/>
       <c r="H63" s="53"/>
       <c r="I63" s="53"/>
       <c r="J63" s="53"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="79"/>
-      <c r="B64" s="76"/>
-      <c r="C64" s="76"/>
-      <c r="D64" s="76"/>
-      <c r="E64" s="76"/>
-      <c r="F64" s="76"/>
-      <c r="G64" s="77"/>
+      <c r="A64" s="99"/>
+      <c r="B64" s="82"/>
+      <c r="C64" s="82"/>
+      <c r="D64" s="82"/>
+      <c r="E64" s="82"/>
+      <c r="F64" s="82"/>
+      <c r="G64" s="95"/>
       <c r="H64" s="53"/>
       <c r="I64" s="53"/>
       <c r="J64" s="53"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="79"/>
-      <c r="B65" s="76"/>
-      <c r="C65" s="76"/>
-      <c r="D65" s="76"/>
-      <c r="E65" s="76"/>
-      <c r="F65" s="76"/>
-      <c r="G65" s="77"/>
+      <c r="A65" s="99"/>
+      <c r="B65" s="82"/>
+      <c r="C65" s="82"/>
+      <c r="D65" s="82"/>
+      <c r="E65" s="82"/>
+      <c r="F65" s="82"/>
+      <c r="G65" s="95"/>
       <c r="H65" s="53"/>
       <c r="I65" s="53"/>
       <c r="J65" s="53"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="79"/>
-      <c r="B66" s="76"/>
-      <c r="C66" s="76"/>
-      <c r="D66" s="76"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="76"/>
-      <c r="G66" s="77"/>
+      <c r="A66" s="99"/>
+      <c r="B66" s="82"/>
+      <c r="C66" s="82"/>
+      <c r="D66" s="82"/>
+      <c r="E66" s="82"/>
+      <c r="F66" s="82"/>
+      <c r="G66" s="95"/>
       <c r="H66" s="53"/>
       <c r="I66" s="53"/>
       <c r="J66" s="53"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="79"/>
-      <c r="B67" s="76"/>
-      <c r="C67" s="76"/>
-      <c r="D67" s="76"/>
-      <c r="E67" s="76"/>
-      <c r="F67" s="76"/>
-      <c r="G67" s="77"/>
+      <c r="A67" s="99"/>
+      <c r="B67" s="82"/>
+      <c r="C67" s="82"/>
+      <c r="D67" s="82"/>
+      <c r="E67" s="82"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="95"/>
       <c r="H67" s="53"/>
       <c r="I67" s="53"/>
       <c r="J67" s="53"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="79"/>
-      <c r="B68" s="76"/>
-      <c r="C68" s="76"/>
-      <c r="D68" s="76"/>
-      <c r="E68" s="76"/>
-      <c r="F68" s="76"/>
-      <c r="G68" s="77"/>
+      <c r="A68" s="99"/>
+      <c r="B68" s="82"/>
+      <c r="C68" s="82"/>
+      <c r="D68" s="82"/>
+      <c r="E68" s="82"/>
+      <c r="F68" s="82"/>
+      <c r="G68" s="95"/>
       <c r="H68" s="53"/>
       <c r="I68" s="53"/>
       <c r="J68" s="53"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="79"/>
-      <c r="B69" s="76"/>
-      <c r="C69" s="76"/>
-      <c r="D69" s="76"/>
-      <c r="E69" s="76"/>
-      <c r="F69" s="76"/>
-      <c r="G69" s="77"/>
+      <c r="A69" s="99"/>
+      <c r="B69" s="82"/>
+      <c r="C69" s="82"/>
+      <c r="D69" s="82"/>
+      <c r="E69" s="82"/>
+      <c r="F69" s="82"/>
+      <c r="G69" s="95"/>
       <c r="H69" s="53"/>
       <c r="I69" s="53"/>
       <c r="J69" s="53"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="79"/>
-      <c r="B70" s="76"/>
-      <c r="C70" s="76"/>
-      <c r="D70" s="76"/>
-      <c r="E70" s="76"/>
-      <c r="F70" s="76"/>
-      <c r="G70" s="77"/>
+      <c r="A70" s="99"/>
+      <c r="B70" s="82"/>
+      <c r="C70" s="82"/>
+      <c r="D70" s="82"/>
+      <c r="E70" s="82"/>
+      <c r="F70" s="82"/>
+      <c r="G70" s="95"/>
       <c r="H70" s="53"/>
       <c r="I70" s="53"/>
       <c r="J70" s="53"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="79"/>
-      <c r="B71" s="76"/>
-      <c r="C71" s="76"/>
-      <c r="D71" s="76"/>
-      <c r="E71" s="76"/>
-      <c r="F71" s="76"/>
-      <c r="G71" s="77"/>
+      <c r="A71" s="99"/>
+      <c r="B71" s="82"/>
+      <c r="C71" s="82"/>
+      <c r="D71" s="82"/>
+      <c r="E71" s="82"/>
+      <c r="F71" s="82"/>
+      <c r="G71" s="95"/>
       <c r="H71" s="53"/>
       <c r="I71" s="53"/>
       <c r="J71" s="53"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="79"/>
-      <c r="B72" s="76"/>
-      <c r="C72" s="76"/>
-      <c r="D72" s="76"/>
-      <c r="E72" s="76"/>
-      <c r="F72" s="76"/>
-      <c r="G72" s="77"/>
+      <c r="A72" s="99"/>
+      <c r="B72" s="82"/>
+      <c r="C72" s="82"/>
+      <c r="D72" s="82"/>
+      <c r="E72" s="82"/>
+      <c r="F72" s="82"/>
+      <c r="G72" s="95"/>
       <c r="H72" s="53"/>
       <c r="I72" s="53"/>
       <c r="J72" s="53"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="79"/>
-      <c r="B73" s="76"/>
-      <c r="C73" s="76"/>
-      <c r="D73" s="76"/>
-      <c r="E73" s="76"/>
-      <c r="F73" s="76"/>
-      <c r="G73" s="77"/>
+      <c r="A73" s="99"/>
+      <c r="B73" s="82"/>
+      <c r="C73" s="82"/>
+      <c r="D73" s="82"/>
+      <c r="E73" s="82"/>
+      <c r="F73" s="82"/>
+      <c r="G73" s="95"/>
       <c r="H73" s="53"/>
       <c r="I73" s="53"/>
       <c r="J73" s="53"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="79"/>
-      <c r="B74" s="76"/>
-      <c r="C74" s="76"/>
-      <c r="D74" s="76"/>
-      <c r="E74" s="76"/>
-      <c r="F74" s="76"/>
-      <c r="G74" s="77"/>
-      <c r="H74" s="87"/>
-      <c r="I74" s="76"/>
-      <c r="J74" s="76"/>
+      <c r="A74" s="99"/>
+      <c r="B74" s="82"/>
+      <c r="C74" s="82"/>
+      <c r="D74" s="82"/>
+      <c r="E74" s="82"/>
+      <c r="F74" s="82"/>
+      <c r="G74" s="95"/>
+      <c r="H74" s="107"/>
+      <c r="I74" s="82"/>
+      <c r="J74" s="82"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="75"/>
-      <c r="B75" s="76"/>
-      <c r="C75" s="76"/>
-      <c r="D75" s="76"/>
-      <c r="E75" s="76"/>
-      <c r="F75" s="76"/>
-      <c r="G75" s="77"/>
-      <c r="H75" s="83"/>
-      <c r="I75" s="76"/>
-      <c r="J75" s="76"/>
+      <c r="A75" s="109"/>
+      <c r="B75" s="82"/>
+      <c r="C75" s="82"/>
+      <c r="D75" s="82"/>
+      <c r="E75" s="82"/>
+      <c r="F75" s="82"/>
+      <c r="G75" s="95"/>
+      <c r="H75" s="105"/>
+      <c r="I75" s="82"/>
+      <c r="J75" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A75:G75"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="A66:G66"/>
+    <mergeCell ref="A74:G74"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A71:G71"/>
+    <mergeCell ref="A65:G65"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="A72:G72"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="A73:G73"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A61:G61"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="A70:G70"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A68:G68"/>
+    <mergeCell ref="A63:G63"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A67:G67"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="C28:D28"/>
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="A11:J11"/>
@@ -2677,54 +2712,13 @@
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A68:G68"/>
-    <mergeCell ref="A63:G63"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A67:G67"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A53:G53"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="A64:G64"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A60:G60"/>
-    <mergeCell ref="A73:G73"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A61:G61"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="A70:G70"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="A69:G69"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A75:G75"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="A66:G66"/>
-    <mergeCell ref="A74:G74"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A71:G71"/>
-    <mergeCell ref="A65:G65"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="A72:G72"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLinesSet="0"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.94488188976377963" bottom="0.74803149606299213" header="0.31496062992125978" footer="0.31496062992125978"/>
@@ -2733,88 +2727,4 @@
     <oddHeader>&amp;R&amp;G</oddHeader>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F48"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="Q65" sqref="Q65"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="48" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F48" s="63"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="I32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I32" s="63"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>